--- a/data/data_estudiantes_poblacion.xlsx
+++ b/data/data_estudiantes_poblacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_diazc_uniandes_edu_co/Documents/Semestre 7/Introducción a la Ciencia de Datos/Taller 3/IntroCienciaDatos3/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_diazc_uniandes_edu_co/Documents/Semestre 7/Introducción a la Ciencia de Datos/Taller 3/IntroCienciaDatos3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A123DB27-7712-614E-9935-FD7D0F6C86A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{A123DB27-7712-614E-9935-FD7D0F6C86A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8262C67C-6D4E-45B9-85AC-AA597734A3FC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{53CE5534-1764-8A4F-9E51-67AE2FD08C6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53CE5534-1764-8A4F-9E51-67AE2FD08C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,16 +603,16 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -688,7 +688,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -726,7 +726,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -764,7 +764,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -802,7 +802,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -840,7 +840,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -878,7 +878,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -916,7 +916,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -954,7 +954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -992,7 +992,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1030,10 +1030,28 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="H12">
         <v>7</v>
       </c>
@@ -1050,7 +1068,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1106,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1144,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1164,7 +1182,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +1220,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1240,7 +1258,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1278,7 +1296,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1354,7 +1372,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1392,7 +1410,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1430,7 +1448,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1468,7 +1486,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1506,7 +1524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1544,7 +1562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1582,7 +1600,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1620,7 +1638,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1658,7 +1676,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1714,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1734,7 +1752,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1772,10 +1790,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
       <c r="I32">
         <v>1</v>
       </c>
@@ -1789,7 +1828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1823,8 +1862,11 @@
       <c r="K33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1862,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1893,14 +1935,32 @@
       <c r="J35">
         <v>1</v>
       </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
       <c r="L35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
       <c r="G36">
         <v>1</v>
       </c>
@@ -1920,10 +1980,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
       <c r="J37">
         <v>3</v>
       </c>
@@ -1934,10 +2018,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
       <c r="I38">
         <v>1</v>
       </c>
@@ -1951,10 +2056,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
       <c r="H39">
         <v>1</v>
       </c>
@@ -1971,13 +2094,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
       <c r="D40">
         <v>1</v>
       </c>
@@ -1999,14 +2125,23 @@
       <c r="J40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
       <c r="D41">
         <v>1</v>
       </c>
@@ -2035,10 +2170,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
       <c r="K42">
         <v>2</v>
       </c>
@@ -2046,7 +2208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2084,7 +2246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2122,7 +2284,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2160,7 +2322,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2198,7 +2360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2236,10 +2398,37 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
       <c r="K48">
         <v>6</v>
       </c>
@@ -2247,7 +2436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -2285,7 +2474,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -2323,7 +2512,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2361,7 +2550,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2399,7 +2588,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2437,7 +2626,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2447,8 +2636,35 @@
       <c r="C54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2486,7 +2702,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -2524,7 +2740,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -2562,7 +2778,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2600,7 +2816,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -2638,7 +2854,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2676,7 +2892,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
